--- a/biology/Botanique/Roccella_tinctoria/Roccella_tinctoria.xlsx
+++ b/biology/Botanique/Roccella_tinctoria/Roccella_tinctoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roccella tinctoria[1], l'orseille ou pourpre française, est un lichen marin filamenteux de la famille des Roccellaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roccella tinctoria, l'orseille ou pourpre française, est un lichen marin filamenteux de la famille des Roccellaceae.
 Il pousse en Macaronésie et  sur la côte ouest de l'Amérique du Sud. On doit au botaniste suisse Pyrame de Candolle, sa première description en 1805. Il est proche du Roccella canariensis.
 </t>
         </is>
